--- a/biology/Botanique/Square_Alfred-Capus/Square_Alfred-Capus.xlsx
+++ b/biology/Botanique/Square_Alfred-Capus/Square_Alfred-Capus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Alfred-Capus est un square du 16e arrondissement de Paris, longeant le bois de Boulogne et le boulevard Suchet.
@@ -512,11 +524,13 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square est accessible par le 118, boulevard Suchet et le 25 avenue du Maréchal-Lyautey[1],[2].
-Il est ouvert 24 heures sur 24[2].
-Il est desservi par la ligne 10 à la station de métro Porte d'Auteuil[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square est accessible par le 118, boulevard Suchet et le 25 avenue du Maréchal-Lyautey,.
+Il est ouvert 24 heures sur 24.
+Il est desservi par la ligne 10 à la station de métro Porte d'Auteuil.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il porte le nom de l'auteur dramatique Alfred Capus (1858-1922)[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il porte le nom de l'auteur dramatique Alfred Capus (1858-1922),.
 </t>
         </is>
       </c>
@@ -576,12 +592,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce square est ouvert et prend sa dénomination actuelle en 1929, à l'emplacement du bastion no 62 de l'enceinte de Thiers[1]. Voisins, les squares Tolstoï, Henry-Bataille et des Écrivains-Combattants-Morts-pour-la-France sont aménagés à la même époque et suivant un schéma similaire.
-Le square Alfred-Capus est un espace vert loti sur ses pourtours nord et sud. Il possède le label ÉcoJardin[2].
-Planté d'un micocoulier de Provence, le square accueille une aire de jeux pour enfants. Il est accessible aux personnes à mobilité réduite. Les chiens y sont interdits. Juste à l'extérieur, côté ouest, sur un tronçon piéton de l'avenue du Maréchal-Lyautey, sont installés deux blocs d'escalade et quatre tables de pique-nique[2].
-Une plaque commémorative en hommage aux hommes politiques hongrois József Antall (père et fils) y est apposée. Le premier protégea des prisonniers français et des personnes persécutées par le Troisième Reich ; le second fut le premier chef de gouvernement élu démocratiquement après la chute de la dictature communiste hongroise, en 1990[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce square est ouvert et prend sa dénomination actuelle en 1929, à l'emplacement du bastion no 62 de l'enceinte de Thiers. Voisins, les squares Tolstoï, Henry-Bataille et des Écrivains-Combattants-Morts-pour-la-France sont aménagés à la même époque et suivant un schéma similaire.
+Le square Alfred-Capus est un espace vert loti sur ses pourtours nord et sud. Il possède le label ÉcoJardin.
+Planté d'un micocoulier de Provence, le square accueille une aire de jeux pour enfants. Il est accessible aux personnes à mobilité réduite. Les chiens y sont interdits. Juste à l'extérieur, côté ouest, sur un tronçon piéton de l'avenue du Maréchal-Lyautey, sont installés deux blocs d'escalade et quatre tables de pique-nique.
+Une plaque commémorative en hommage aux hommes politiques hongrois József Antall (père et fils) y est apposée. Le premier protégea des prisonniers français et des personnes persécutées par le Troisième Reich ; le second fut le premier chef de gouvernement élu démocratiquement après la chute de la dictature communiste hongroise, en 1990.
 			Allée.
 			Allée.
 			Aire de jeux.
@@ -615,7 +633,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'hippodrome d'Auteuil est visible depuis le square, et donc le bois de Boulogne, où il est situé.</t>
         </is>
